--- a/EstimatedActiveCasesOverTimeByCounty/2021-02-16.xlsx
+++ b/EstimatedActiveCasesOverTimeByCounty/2021-02-16.xlsx
@@ -12,9 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="331">
   <si>
-    <t>COVID-19 Active Cases by County, 12/11/2020 - 02/15/2021 at 3:00 PM CST</t>
+    <t>COVID-19 Active Cases by County, 12/11/2020 - 02/16/2021 at 3:00 PM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -219,6 +219,9 @@
   </si>
   <si>
     <t>Active Cases 02-14</t>
+  </si>
+  <si>
+    <t>Active Cases 02-15</t>
   </si>
   <si>
     <t/>
@@ -1184,6 +1187,7 @@
     <col min="65" max="65" width="12.0" customWidth="true"/>
     <col min="66" max="66" width="12.0" customWidth="true"/>
     <col min="67" max="67" width="12.0" customWidth="true"/>
+    <col min="68" max="68" width="12.0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1398,13 +1402,16 @@
       <c r="BO3" t="s" s="10">
         <v>68</v>
       </c>
+      <c r="BP3" t="s" s="10">
+        <v>69</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C4" t="n">
         <v>261.0</v>
@@ -1600,14 +1607,17 @@
       </c>
       <c r="BO4" t="n">
         <v>247.0</v>
+      </c>
+      <c r="BP4" t="n">
+        <v>164.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C5" t="n">
         <v>313.0</v>
@@ -1802,15 +1812,18 @@
         <v>147.0</v>
       </c>
       <c r="BO5" t="n">
+        <v>147.0</v>
+      </c>
+      <c r="BP5" t="n">
         <v>147.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C6" t="n">
         <v>751.0</v>
@@ -2006,14 +2019,17 @@
       </c>
       <c r="BO6" t="n">
         <v>636.0</v>
+      </c>
+      <c r="BP6" t="n">
+        <v>453.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C7" t="n">
         <v>103.0</v>
@@ -2209,14 +2225,17 @@
       </c>
       <c r="BO7" t="n">
         <v>139.0</v>
+      </c>
+      <c r="BP7" t="n">
+        <v>97.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C8" t="n">
         <v>45.0</v>
@@ -2411,15 +2430,18 @@
         <v>1.0</v>
       </c>
       <c r="BO8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BP8" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C9" t="n">
         <v>32.0</v>
@@ -2615,14 +2637,17 @@
       </c>
       <c r="BO9" t="n">
         <v>9.0</v>
+      </c>
+      <c r="BP9" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C10" t="n">
         <v>210.0</v>
@@ -2817,15 +2842,18 @@
         <v>205.0</v>
       </c>
       <c r="BO10" t="n">
+        <v>205.0</v>
+      </c>
+      <c r="BP10" t="n">
         <v>205.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C11" t="n">
         <v>77.0</v>
@@ -3021,14 +3049,17 @@
       </c>
       <c r="BO11" t="n">
         <v>91.0</v>
+      </c>
+      <c r="BP11" t="n">
+        <v>97.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C12" t="n">
         <v>118.0</v>
@@ -3224,14 +3255,17 @@
       </c>
       <c r="BO12" t="n">
         <v>11.0</v>
+      </c>
+      <c r="BP12" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C13" t="n">
         <v>46.0</v>
@@ -3426,15 +3460,18 @@
         <v>64.0</v>
       </c>
       <c r="BO13" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="BP13" t="n">
         <v>64.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C14" t="n">
         <v>461.0</v>
@@ -3630,14 +3667,17 @@
       </c>
       <c r="BO14" t="n">
         <v>0.0</v>
+      </c>
+      <c r="BP14" t="n">
+        <v>1010.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B15" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C15" t="n">
         <v>8.0</v>
@@ -3832,15 +3872,18 @@
         <v>1.0</v>
       </c>
       <c r="BO15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BP15" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B16" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C16" t="n">
         <v>171.0</v>
@@ -4036,14 +4079,17 @@
       </c>
       <c r="BO16" t="n">
         <v>231.0</v>
+      </c>
+      <c r="BP16" t="n">
+        <v>140.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C17" t="n">
         <v>1639.0</v>
@@ -4238,15 +4284,18 @@
         <v>1072.0</v>
       </c>
       <c r="BO17" t="n">
+        <v>1072.0</v>
+      </c>
+      <c r="BP17" t="n">
         <v>1072.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B18" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C18" t="n">
         <v>15750.0</v>
@@ -4442,14 +4491,17 @@
       </c>
       <c r="BO18" t="n">
         <v>18693.0</v>
+      </c>
+      <c r="BP18" t="n">
+        <v>19075.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B19" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C19" t="n">
         <v>24.0</v>
@@ -4645,14 +4697,17 @@
       </c>
       <c r="BO19" t="n">
         <v>0.0</v>
+      </c>
+      <c r="BP19" t="n">
+        <v>115.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B20" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C20" t="n">
         <v>5.0</v>
@@ -4847,15 +4902,18 @@
         <v>0.0</v>
       </c>
       <c r="BO20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BP20" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B21" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C21" t="n">
         <v>74.0</v>
@@ -5051,14 +5109,17 @@
       </c>
       <c r="BO21" t="n">
         <v>0.0</v>
+      </c>
+      <c r="BP21" t="n">
+        <v>174.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B22" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C22" t="n">
         <v>482.0</v>
@@ -5254,14 +5315,17 @@
       </c>
       <c r="BO22" t="n">
         <v>584.0</v>
+      </c>
+      <c r="BP22" t="n">
+        <v>582.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B23" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C23" t="n">
         <v>2730.0</v>
@@ -5457,14 +5521,17 @@
       </c>
       <c r="BO23" t="n">
         <v>4341.0</v>
+      </c>
+      <c r="BP23" t="n">
+        <v>4413.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B24" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C24" t="n">
         <v>854.0</v>
@@ -5659,15 +5726,18 @@
         <v>1173.0</v>
       </c>
       <c r="BO24" t="n">
+        <v>1173.0</v>
+      </c>
+      <c r="BP24" t="n">
         <v>1173.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B25" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C25" t="n">
         <v>182.0</v>
@@ -5863,14 +5933,17 @@
       </c>
       <c r="BO25" t="n">
         <v>25.0</v>
+      </c>
+      <c r="BP25" t="n">
+        <v>23.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B26" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C26" t="n">
         <v>15.0</v>
@@ -6065,15 +6138,18 @@
         <v>6.0</v>
       </c>
       <c r="BO26" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="BP26" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B27" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C27" t="n">
         <v>38.0</v>
@@ -6269,14 +6345,17 @@
       </c>
       <c r="BO27" t="n">
         <v>22.0</v>
+      </c>
+      <c r="BP27" t="n">
+        <v>21.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B28" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C28" t="n">
         <v>429.0</v>
@@ -6471,15 +6550,18 @@
         <v>189.0</v>
       </c>
       <c r="BO28" t="n">
+        <v>189.0</v>
+      </c>
+      <c r="BP28" t="n">
         <v>189.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B29" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C29" t="n">
         <v>119.0</v>
@@ -6675,14 +6757,17 @@
       </c>
       <c r="BO29" t="n">
         <v>53.0</v>
+      </c>
+      <c r="BP29" t="n">
+        <v>389.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B30" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C30" t="n">
         <v>311.0</v>
@@ -6878,14 +6963,17 @@
       </c>
       <c r="BO30" t="n">
         <v>0.0</v>
+      </c>
+      <c r="BP30" t="n">
+        <v>569.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B31" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C31" t="n">
         <v>197.0</v>
@@ -7081,14 +7169,17 @@
       </c>
       <c r="BO31" t="n">
         <v>0.0</v>
+      </c>
+      <c r="BP31" t="n">
+        <v>637.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B32" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C32" t="n">
         <v>51.0</v>
@@ -7283,15 +7374,18 @@
         <v>91.0</v>
       </c>
       <c r="BO32" t="n">
+        <v>91.0</v>
+      </c>
+      <c r="BP32" t="n">
         <v>91.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B33" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C33" t="n">
         <v>49.0</v>
@@ -7486,15 +7580,18 @@
         <v>16.0</v>
       </c>
       <c r="BO33" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="BP33" t="n">
         <v>16.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B34" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C34" t="n">
         <v>2029.0</v>
@@ -7689,15 +7786,18 @@
         <v>4551.0</v>
       </c>
       <c r="BO34" t="n">
+        <v>4551.0</v>
+      </c>
+      <c r="BP34" t="n">
         <v>4551.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B35" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C35" t="n">
         <v>71.0</v>
@@ -7892,15 +7992,18 @@
         <v>179.0</v>
       </c>
       <c r="BO35" t="n">
+        <v>180.0</v>
+      </c>
+      <c r="BP35" t="n">
         <v>180.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B36" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C36" t="n">
         <v>117.0</v>
@@ -8095,15 +8198,18 @@
         <v>19.0</v>
       </c>
       <c r="BO36" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="BP36" t="n">
         <v>19.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B37" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C37" t="n">
         <v>83.0</v>
@@ -8299,14 +8405,17 @@
       </c>
       <c r="BO37" t="n">
         <v>118.0</v>
+      </c>
+      <c r="BP37" t="n">
+        <v>114.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B38" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C38" t="n">
         <v>133.0</v>
@@ -8502,14 +8611,17 @@
       </c>
       <c r="BO38" t="n">
         <v>25.0</v>
+      </c>
+      <c r="BP38" t="n">
+        <v>22.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B39" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C39" t="n">
         <v>269.0</v>
@@ -8704,15 +8816,18 @@
         <v>321.0</v>
       </c>
       <c r="BO39" t="n">
+        <v>321.0</v>
+      </c>
+      <c r="BP39" t="n">
         <v>321.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B40" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C40" t="n">
         <v>214.0</v>
@@ -8907,15 +9022,18 @@
         <v>0.0</v>
       </c>
       <c r="BO40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BP40" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B41" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C41" t="n">
         <v>218.0</v>
@@ -9110,15 +9228,18 @@
         <v>6.0</v>
       </c>
       <c r="BO41" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="BP41" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B42" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C42" t="n">
         <v>63.0</v>
@@ -9313,15 +9434,18 @@
         <v>8.0</v>
       </c>
       <c r="BO42" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="BP42" t="n">
         <v>8.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B43" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C43" t="n">
         <v>19.0</v>
@@ -9516,15 +9640,18 @@
         <v>14.0</v>
       </c>
       <c r="BO43" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="BP43" t="n">
         <v>14.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B44" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C44" t="n">
         <v>38.0</v>
@@ -9719,15 +9846,18 @@
         <v>1.0</v>
       </c>
       <c r="BO44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BP44" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B45" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C45" t="n">
         <v>12.0</v>
@@ -9922,15 +10052,18 @@
         <v>3.0</v>
       </c>
       <c r="BO45" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BP45" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B46" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C46" t="n">
         <v>3987.0</v>
@@ -10126,14 +10259,17 @@
       </c>
       <c r="BO46" t="n">
         <v>3200.0</v>
+      </c>
+      <c r="BP46" t="n">
+        <v>2644.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B47" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C47" t="n">
         <v>104.0</v>
@@ -10328,15 +10464,18 @@
         <v>7.0</v>
       </c>
       <c r="BO47" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="BP47" t="n">
         <v>7.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B48" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C48" t="n">
         <v>91.0</v>
@@ -10532,14 +10671,17 @@
       </c>
       <c r="BO48" t="n">
         <v>48.0</v>
+      </c>
+      <c r="BP48" t="n">
+        <v>49.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B49" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C49" t="n">
         <v>667.0</v>
@@ -10734,15 +10876,18 @@
         <v>630.0</v>
       </c>
       <c r="BO49" t="n">
+        <v>630.0</v>
+      </c>
+      <c r="BP49" t="n">
         <v>630.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B50" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C50" t="n">
         <v>112.0</v>
@@ -10937,15 +11082,18 @@
         <v>26.0</v>
       </c>
       <c r="BO50" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="BP50" t="n">
         <v>26.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B51" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C51" t="n">
         <v>11.0</v>
@@ -11141,14 +11289,17 @@
       </c>
       <c r="BO51" t="n">
         <v>17.0</v>
+      </c>
+      <c r="BP51" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B52" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C52" t="n">
         <v>249.0</v>
@@ -11343,15 +11494,18 @@
         <v>69.0</v>
       </c>
       <c r="BO52" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="BP52" t="n">
         <v>69.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B53" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C53" t="n">
         <v>318.0</v>
@@ -11547,14 +11701,17 @@
       </c>
       <c r="BO53" t="n">
         <v>0.0</v>
+      </c>
+      <c r="BP53" t="n">
+        <v>174.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B54" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C54" t="n">
         <v>30.0</v>
@@ -11749,15 +11906,18 @@
         <v>0.0</v>
       </c>
       <c r="BO54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BP54" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B55" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C55" t="n">
         <v>0.0</v>
@@ -11952,15 +12112,18 @@
         <v>0.0</v>
       </c>
       <c r="BO55" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BP55" t="n">
         <v>10.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B56" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C56" t="n">
         <v>8.0</v>
@@ -12156,14 +12319,17 @@
       </c>
       <c r="BO56" t="n">
         <v>49.0</v>
+      </c>
+      <c r="BP56" t="n">
+        <v>48.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B57" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C57" t="n">
         <v>40.0</v>
@@ -12359,14 +12525,17 @@
       </c>
       <c r="BO57" t="n">
         <v>37.0</v>
+      </c>
+      <c r="BP57" t="n">
+        <v>35.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B58" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C58" t="n">
         <v>44.0</v>
@@ -12562,14 +12731,17 @@
       </c>
       <c r="BO58" t="n">
         <v>13.0</v>
+      </c>
+      <c r="BP58" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B59" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C59" t="n">
         <v>24.0</v>
@@ -12765,14 +12937,17 @@
       </c>
       <c r="BO59" t="n">
         <v>22.0</v>
+      </c>
+      <c r="BP59" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B60" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C60" t="n">
         <v>25147.0</v>
@@ -12968,14 +13143,17 @@
       </c>
       <c r="BO60" t="n">
         <v>22344.0</v>
+      </c>
+      <c r="BP60" t="n">
+        <v>21550.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B61" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C61" t="n">
         <v>161.0</v>
@@ -13170,15 +13348,18 @@
         <v>15.0</v>
       </c>
       <c r="BO61" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="BP61" t="n">
         <v>15.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B62" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C62" t="n">
         <v>418.0</v>
@@ -13374,14 +13555,17 @@
       </c>
       <c r="BO62" t="n">
         <v>89.0</v>
+      </c>
+      <c r="BP62" t="n">
+        <v>86.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B63" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C63" t="n">
         <v>25.0</v>
@@ -13576,15 +13760,18 @@
         <v>40.0</v>
       </c>
       <c r="BO63" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="BP63" t="n">
         <v>39.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B64" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C64" t="n">
         <v>8213.0</v>
@@ -13779,15 +13966,18 @@
         <v>14804.0</v>
       </c>
       <c r="BO64" t="n">
+        <v>14804.0</v>
+      </c>
+      <c r="BP64" t="n">
         <v>14804.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B65" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C65" t="n">
         <v>99.0</v>
@@ -13982,15 +14172,18 @@
         <v>114.0</v>
       </c>
       <c r="BO65" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="BP65" t="n">
         <v>114.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B66" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C66" t="n">
         <v>19.0</v>
@@ -14186,14 +14379,17 @@
       </c>
       <c r="BO66" t="n">
         <v>9.0</v>
+      </c>
+      <c r="BP66" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B67" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C67" t="n">
         <v>44.0</v>
@@ -14388,15 +14584,18 @@
         <v>111.0</v>
       </c>
       <c r="BO67" t="n">
+        <v>111.0</v>
+      </c>
+      <c r="BP67" t="n">
         <v>111.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B68" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C68" t="n">
         <v>47.0</v>
@@ -14591,15 +14790,18 @@
         <v>18.0</v>
       </c>
       <c r="BO68" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="BP68" t="n">
         <v>19.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C69" t="n">
         <v>86.0</v>
@@ -14795,14 +14997,17 @@
       </c>
       <c r="BO69" t="n">
         <v>33.0</v>
+      </c>
+      <c r="BP69" t="n">
+        <v>29.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C70" t="n">
         <v>55.0</v>
@@ -14997,15 +15202,18 @@
         <v>25.0</v>
       </c>
       <c r="BO70" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="BP70" t="n">
         <v>25.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C71" t="n">
         <v>5924.0</v>
@@ -15201,14 +15409,17 @@
       </c>
       <c r="BO71" t="n">
         <v>2420.0</v>
+      </c>
+      <c r="BP71" t="n">
+        <v>2204.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C72" t="n">
         <v>14.0</v>
@@ -15403,15 +15614,18 @@
         <v>2.0</v>
       </c>
       <c r="BO72" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BP72" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C73" t="n">
         <v>856.0</v>
@@ -15606,15 +15820,18 @@
         <v>470.0</v>
       </c>
       <c r="BO73" t="n">
+        <v>470.0</v>
+      </c>
+      <c r="BP73" t="n">
         <v>470.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B74" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C74" t="n">
         <v>37353.0</v>
@@ -15810,14 +16027,17 @@
       </c>
       <c r="BO74" t="n">
         <v>7989.0</v>
+      </c>
+      <c r="BP74" t="n">
+        <v>7852.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B75" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C75" t="n">
         <v>162.0</v>
@@ -16012,15 +16232,18 @@
         <v>58.0</v>
       </c>
       <c r="BO75" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="BP75" t="n">
         <v>58.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B76" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C76" t="n">
         <v>77.0</v>
@@ -16216,14 +16439,17 @@
       </c>
       <c r="BO76" t="n">
         <v>0.0</v>
+      </c>
+      <c r="BP76" t="n">
+        <v>160.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B77" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C77" t="n">
         <v>151.0</v>
@@ -16418,15 +16644,18 @@
         <v>66.0</v>
       </c>
       <c r="BO77" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="BP77" t="n">
         <v>66.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B78" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C78" t="n">
         <v>193.0</v>
@@ -16622,14 +16851,17 @@
       </c>
       <c r="BO78" t="n">
         <v>9.0</v>
+      </c>
+      <c r="BP78" t="n">
+        <v>256.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B79" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C79" t="n">
         <v>28.0</v>
@@ -16824,15 +17056,18 @@
         <v>1.0</v>
       </c>
       <c r="BO79" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BP79" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B80" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C80" t="n">
         <v>107.0</v>
@@ -17028,14 +17263,17 @@
       </c>
       <c r="BO80" t="n">
         <v>52.0</v>
+      </c>
+      <c r="BP80" t="n">
+        <v>50.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B81" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C81" t="n">
         <v>0.0</v>
@@ -17230,15 +17468,18 @@
         <v>1.0</v>
       </c>
       <c r="BO81" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BP81" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B82" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C82" t="n">
         <v>7296.0</v>
@@ -17433,15 +17674,18 @@
         <v>12824.0</v>
       </c>
       <c r="BO82" t="n">
+        <v>12824.0</v>
+      </c>
+      <c r="BP82" t="n">
         <v>12824.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B83" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C83" t="n">
         <v>24.0</v>
@@ -17637,14 +17881,17 @@
       </c>
       <c r="BO83" t="n">
         <v>107.0</v>
+      </c>
+      <c r="BP83" t="n">
+        <v>108.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B84" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C84" t="n">
         <v>129.0</v>
@@ -17840,14 +18087,17 @@
       </c>
       <c r="BO84" t="n">
         <v>0.0</v>
+      </c>
+      <c r="BP84" t="n">
+        <v>118.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B85" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C85" t="n">
         <v>107.0</v>
@@ -18042,15 +18292,18 @@
         <v>87.0</v>
       </c>
       <c r="BO85" t="n">
+        <v>87.0</v>
+      </c>
+      <c r="BP85" t="n">
         <v>87.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B86" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C86" t="n">
         <v>162.0</v>
@@ -18245,15 +18498,18 @@
         <v>17.0</v>
       </c>
       <c r="BO86" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="BP86" t="n">
         <v>17.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B87" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C87" t="n">
         <v>2026.0</v>
@@ -18448,15 +18704,18 @@
         <v>6025.0</v>
       </c>
       <c r="BO87" t="n">
+        <v>6025.0</v>
+      </c>
+      <c r="BP87" t="n">
         <v>6025.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B88" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C88" t="n">
         <v>27.0</v>
@@ -18651,15 +18910,18 @@
         <v>25.0</v>
       </c>
       <c r="BO88" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="BP88" t="n">
         <v>25.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B89" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C89" t="n">
         <v>126.0</v>
@@ -18854,15 +19116,18 @@
         <v>69.0</v>
       </c>
       <c r="BO89" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="BP89" t="n">
         <v>69.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B90" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C90" t="n">
         <v>0.0</v>
@@ -19057,15 +19322,18 @@
         <v>0.0</v>
       </c>
       <c r="BO90" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BP90" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B91" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C91" t="n">
         <v>2.0</v>
@@ -19260,15 +19528,18 @@
         <v>14.0</v>
       </c>
       <c r="BO91" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="BP91" t="n">
         <v>14.0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B92" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C92" t="n">
         <v>87.0</v>
@@ -19463,15 +19734,18 @@
         <v>78.0</v>
       </c>
       <c r="BO92" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="BP92" t="n">
         <v>78.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B93" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C93" t="n">
         <v>355.0</v>
@@ -19667,14 +19941,17 @@
       </c>
       <c r="BO93" t="n">
         <v>75.0</v>
+      </c>
+      <c r="BP93" t="n">
+        <v>64.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B94" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C94" t="n">
         <v>420.0</v>
@@ -19870,14 +20147,17 @@
       </c>
       <c r="BO94" t="n">
         <v>226.0</v>
+      </c>
+      <c r="BP94" t="n">
+        <v>220.0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B95" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C95" t="n">
         <v>2037.0</v>
@@ -20072,15 +20352,18 @@
         <v>3053.0</v>
       </c>
       <c r="BO95" t="n">
+        <v>3053.0</v>
+      </c>
+      <c r="BP95" t="n">
         <v>3053.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B96" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C96" t="n">
         <v>179.0</v>
@@ -20276,14 +20559,17 @@
       </c>
       <c r="BO96" t="n">
         <v>0.0</v>
+      </c>
+      <c r="BP96" t="n">
+        <v>412.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B97" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C97" t="n">
         <v>401.0</v>
@@ -20478,15 +20764,18 @@
         <v>497.0</v>
       </c>
       <c r="BO97" t="n">
+        <v>497.0</v>
+      </c>
+      <c r="BP97" t="n">
         <v>497.0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B98" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C98" t="n">
         <v>440.0</v>
@@ -20681,15 +20970,18 @@
         <v>108.0</v>
       </c>
       <c r="BO98" t="n">
+        <v>108.0</v>
+      </c>
+      <c r="BP98" t="n">
         <v>108.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B99" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C99" t="n">
         <v>91.0</v>
@@ -20885,14 +21177,17 @@
       </c>
       <c r="BO99" t="n">
         <v>32.0</v>
+      </c>
+      <c r="BP99" t="n">
+        <v>30.0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B100" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C100" t="n">
         <v>53.0</v>
@@ -21088,14 +21383,17 @@
       </c>
       <c r="BO100" t="n">
         <v>16.0</v>
+      </c>
+      <c r="BP100" t="n">
+        <v>67.0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B101" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C101" t="n">
         <v>112.0</v>
@@ -21291,14 +21589,17 @@
       </c>
       <c r="BO101" t="n">
         <v>49.0</v>
+      </c>
+      <c r="BP101" t="n">
+        <v>46.0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B102" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C102" t="n">
         <v>13.0</v>
@@ -21493,15 +21794,18 @@
         <v>5.0</v>
       </c>
       <c r="BO102" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="BP102" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B103" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C103" t="n">
         <v>1162.0</v>
@@ -21696,15 +22000,18 @@
         <v>917.0</v>
       </c>
       <c r="BO103" t="n">
+        <v>917.0</v>
+      </c>
+      <c r="BP103" t="n">
         <v>917.0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B104" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C104" t="n">
         <v>21091.0</v>
@@ -21900,14 +22207,17 @@
       </c>
       <c r="BO104" t="n">
         <v>31736.0</v>
+      </c>
+      <c r="BP104" t="n">
+        <v>32175.0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B105" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C105" t="n">
         <v>239.0</v>
@@ -22103,14 +22413,17 @@
       </c>
       <c r="BO105" t="n">
         <v>919.0</v>
+      </c>
+      <c r="BP105" t="n">
+        <v>906.0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B106" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C106" t="n">
         <v>61.0</v>
@@ -22306,14 +22619,17 @@
       </c>
       <c r="BO106" t="n">
         <v>42.0</v>
+      </c>
+      <c r="BP106" t="n">
+        <v>40.0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B107" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C107" t="n">
         <v>13.0</v>
@@ -22508,15 +22824,18 @@
         <v>3.0</v>
       </c>
       <c r="BO107" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BP107" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B108" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C108" t="n">
         <v>982.0</v>
@@ -22711,15 +23030,18 @@
         <v>1397.0</v>
       </c>
       <c r="BO108" t="n">
+        <v>1397.0</v>
+      </c>
+      <c r="BP108" t="n">
         <v>1397.0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B109" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C109" t="n">
         <v>55.0</v>
@@ -22915,14 +23237,17 @@
       </c>
       <c r="BO109" t="n">
         <v>29.0</v>
+      </c>
+      <c r="BP109" t="n">
+        <v>24.0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B110" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C110" t="n">
         <v>1131.0</v>
@@ -23117,15 +23442,18 @@
         <v>1671.0</v>
       </c>
       <c r="BO110" t="n">
+        <v>1671.0</v>
+      </c>
+      <c r="BP110" t="n">
         <v>1671.0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B111" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C111" t="n">
         <v>2517.0</v>
@@ -23320,15 +23648,18 @@
         <v>2191.0</v>
       </c>
       <c r="BO111" t="n">
+        <v>2191.0</v>
+      </c>
+      <c r="BP111" t="n">
         <v>2191.0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B112" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C112" t="n">
         <v>327.0</v>
@@ -23524,14 +23855,17 @@
       </c>
       <c r="BO112" t="n">
         <v>0.0</v>
+      </c>
+      <c r="BP112" t="n">
+        <v>523.0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B113" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C113" t="n">
         <v>256.0</v>
@@ -23727,14 +24061,17 @@
       </c>
       <c r="BO113" t="n">
         <v>88.0</v>
+      </c>
+      <c r="BP113" t="n">
+        <v>82.0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B114" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C114" t="n">
         <v>280.0</v>
@@ -23929,15 +24266,18 @@
         <v>106.0</v>
       </c>
       <c r="BO114" t="n">
+        <v>106.0</v>
+      </c>
+      <c r="BP114" t="n">
         <v>106.0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B115" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C115" t="n">
         <v>225.0</v>
@@ -24133,14 +24473,17 @@
       </c>
       <c r="BO115" t="n">
         <v>213.0</v>
+      </c>
+      <c r="BP115" t="n">
+        <v>220.0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B116" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C116" t="n">
         <v>54.0</v>
@@ -24336,14 +24679,17 @@
       </c>
       <c r="BO116" t="n">
         <v>81.0</v>
+      </c>
+      <c r="BP116" t="n">
+        <v>86.0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B117" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C117" t="n">
         <v>594.0</v>
@@ -24539,14 +24885,17 @@
       </c>
       <c r="BO117" t="n">
         <v>95.0</v>
+      </c>
+      <c r="BP117" t="n">
+        <v>88.0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B118" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C118" t="n">
         <v>64.0</v>
@@ -24741,15 +25090,18 @@
         <v>0.0</v>
       </c>
       <c r="BO118" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BP118" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B119" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C119" t="n">
         <v>321.0</v>
@@ -24944,15 +25296,18 @@
         <v>1241.0</v>
       </c>
       <c r="BO119" t="n">
+        <v>1334.0</v>
+      </c>
+      <c r="BP119" t="n">
         <v>1334.0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B120" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C120" t="n">
         <v>264.0</v>
@@ -25148,14 +25503,17 @@
       </c>
       <c r="BO120" t="n">
         <v>91.0</v>
+      </c>
+      <c r="BP120" t="n">
+        <v>90.0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B121" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C121" t="n">
         <v>0.0</v>
@@ -25351,14 +25709,17 @@
       </c>
       <c r="BO121" t="n">
         <v>17.0</v>
+      </c>
+      <c r="BP121" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B122" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C122" t="n">
         <v>17.0</v>
@@ -25553,15 +25914,18 @@
         <v>6.0</v>
       </c>
       <c r="BO122" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="BP122" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B123" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C123" t="n">
         <v>58.0</v>
@@ -25756,15 +26120,18 @@
         <v>33.0</v>
       </c>
       <c r="BO123" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="BP123" t="n">
         <v>33.0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B124" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C124" t="n">
         <v>138.0</v>
@@ -25959,15 +26326,18 @@
         <v>56.0</v>
       </c>
       <c r="BO124" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="BP124" t="n">
         <v>56.0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B125" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C125" t="n">
         <v>19.0</v>
@@ -26162,15 +26532,18 @@
         <v>39.0</v>
       </c>
       <c r="BO125" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="BP125" t="n">
         <v>41.0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B126" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C126" t="n">
         <v>2137.0</v>
@@ -26366,14 +26739,17 @@
       </c>
       <c r="BO126" t="n">
         <v>2552.0</v>
+      </c>
+      <c r="BP126" t="n">
+        <v>2522.0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B127" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C127" t="n">
         <v>42.0</v>
@@ -26569,14 +26945,17 @@
       </c>
       <c r="BO127" t="n">
         <v>69.0</v>
+      </c>
+      <c r="BP127" t="n">
+        <v>58.0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B128" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C128" t="n">
         <v>248.0</v>
@@ -26772,14 +27151,17 @@
       </c>
       <c r="BO128" t="n">
         <v>258.0</v>
+      </c>
+      <c r="BP128" t="n">
+        <v>120.0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B129" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C129" t="n">
         <v>846.0</v>
@@ -26974,15 +27356,18 @@
         <v>336.0</v>
       </c>
       <c r="BO129" t="n">
+        <v>336.0</v>
+      </c>
+      <c r="BP129" t="n">
         <v>336.0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B130" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C130" t="n">
         <v>658.0</v>
@@ -27177,15 +27562,18 @@
         <v>124.0</v>
       </c>
       <c r="BO130" t="n">
+        <v>124.0</v>
+      </c>
+      <c r="BP130" t="n">
         <v>124.0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B131" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C131" t="n">
         <v>44.0</v>
@@ -27380,15 +27768,18 @@
         <v>62.0</v>
       </c>
       <c r="BO131" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="BP131" t="n">
         <v>62.0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B132" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C132" t="n">
         <v>524.0</v>
@@ -27583,15 +27974,18 @@
         <v>399.0</v>
       </c>
       <c r="BO132" t="n">
+        <v>399.0</v>
+      </c>
+      <c r="BP132" t="n">
         <v>399.0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B133" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C133" t="n">
         <v>120.0</v>
@@ -27786,15 +28180,18 @@
         <v>151.0</v>
       </c>
       <c r="BO133" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="BP133" t="n">
         <v>151.0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B134" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C134" t="n">
         <v>2.0</v>
@@ -27989,15 +28386,18 @@
         <v>3.0</v>
       </c>
       <c r="BO134" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BP134" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B135" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C135" t="n">
         <v>3.0</v>
@@ -28192,15 +28592,18 @@
         <v>0.0</v>
       </c>
       <c r="BO135" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BP135" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B136" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C136" t="n">
         <v>241.0</v>
@@ -28395,15 +28798,18 @@
         <v>182.0</v>
       </c>
       <c r="BO136" t="n">
+        <v>182.0</v>
+      </c>
+      <c r="BP136" t="n">
         <v>182.0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B137" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C137" t="n">
         <v>6.0</v>
@@ -28599,14 +29005,17 @@
       </c>
       <c r="BO137" t="n">
         <v>22.0</v>
+      </c>
+      <c r="BP137" t="n">
+        <v>20.0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B138" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C138" t="n">
         <v>3.0</v>
@@ -28801,15 +29210,18 @@
         <v>1.0</v>
       </c>
       <c r="BO138" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BP138" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B139" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C139" t="n">
         <v>5.0</v>
@@ -29004,15 +29416,18 @@
         <v>1.0</v>
       </c>
       <c r="BO139" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BP139" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B140" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C140" t="n">
         <v>108.0</v>
@@ -29208,14 +29623,17 @@
       </c>
       <c r="BO140" t="n">
         <v>209.0</v>
+      </c>
+      <c r="BP140" t="n">
+        <v>127.0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B141" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C141" t="n">
         <v>4.0</v>
@@ -29410,15 +29828,18 @@
         <v>1.0</v>
       </c>
       <c r="BO141" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BP141" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B142" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C142" t="n">
         <v>410.0</v>
@@ -29614,14 +30035,17 @@
       </c>
       <c r="BO142" t="n">
         <v>281.0</v>
+      </c>
+      <c r="BP142" t="n">
+        <v>277.0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B143" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C143" t="n">
         <v>354.0</v>
@@ -29817,14 +30241,17 @@
       </c>
       <c r="BO143" t="n">
         <v>55.0</v>
+      </c>
+      <c r="BP143" t="n">
+        <v>49.0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B144" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C144" t="n">
         <v>113.0</v>
@@ -30020,14 +30447,17 @@
       </c>
       <c r="BO144" t="n">
         <v>69.0</v>
+      </c>
+      <c r="BP144" t="n">
+        <v>390.0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B145" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C145" t="n">
         <v>76.0</v>
@@ -30222,15 +30652,18 @@
         <v>61.0</v>
       </c>
       <c r="BO145" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="BP145" t="n">
         <v>61.0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B146" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C146" t="n">
         <v>47.0</v>
@@ -30425,15 +30858,18 @@
         <v>44.0</v>
       </c>
       <c r="BO146" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="BP146" t="n">
         <v>44.0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B147" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C147" t="n">
         <v>123.0</v>
@@ -30629,14 +31065,17 @@
       </c>
       <c r="BO147" t="n">
         <v>121.0</v>
+      </c>
+      <c r="BP147" t="n">
+        <v>324.0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B148" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C148" t="n">
         <v>98.0</v>
@@ -30832,14 +31271,17 @@
       </c>
       <c r="BO148" t="n">
         <v>0.0</v>
+      </c>
+      <c r="BP148" t="n">
+        <v>174.0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B149" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C149" t="n">
         <v>203.0</v>
@@ -31035,14 +31477,17 @@
       </c>
       <c r="BO149" t="n">
         <v>507.0</v>
+      </c>
+      <c r="BP149" t="n">
+        <v>535.0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B150" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C150" t="n">
         <v>137.0</v>
@@ -31238,14 +31683,17 @@
       </c>
       <c r="BO150" t="n">
         <v>0.0</v>
+      </c>
+      <c r="BP150" t="n">
+        <v>383.0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B151" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C151" t="n">
         <v>53.0</v>
@@ -31441,14 +31889,17 @@
       </c>
       <c r="BO151" t="n">
         <v>20.0</v>
+      </c>
+      <c r="BP151" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B152" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C152" t="n">
         <v>137.0</v>
@@ -31643,15 +32094,18 @@
         <v>60.0</v>
       </c>
       <c r="BO152" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="BP152" t="n">
         <v>57.0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B153" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C153" t="n">
         <v>133.0</v>
@@ -31847,14 +32301,17 @@
       </c>
       <c r="BO153" t="n">
         <v>84.0</v>
+      </c>
+      <c r="BP153" t="n">
+        <v>261.0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B154" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C154" t="n">
         <v>0.0</v>
@@ -32049,15 +32506,18 @@
         <v>0.0</v>
       </c>
       <c r="BO154" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BP154" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B155" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C155" t="n">
         <v>4535.0</v>
@@ -32253,14 +32713,17 @@
       </c>
       <c r="BO155" t="n">
         <v>718.0</v>
+      </c>
+      <c r="BP155" t="n">
+        <v>610.0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B156" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C156" t="n">
         <v>83.0</v>
@@ -32455,15 +32918,18 @@
         <v>8.0</v>
       </c>
       <c r="BO156" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="BP156" t="n">
         <v>8.0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B157" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C157" t="n">
         <v>41.0</v>
@@ -32659,14 +33125,17 @@
       </c>
       <c r="BO157" t="n">
         <v>34.0</v>
+      </c>
+      <c r="BP157" t="n">
+        <v>35.0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B158" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C158" t="n">
         <v>1147.0</v>
@@ -32862,14 +33331,17 @@
       </c>
       <c r="BO158" t="n">
         <v>415.0</v>
+      </c>
+      <c r="BP158" t="n">
+        <v>269.0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B159" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C159" t="n">
         <v>7.0</v>
@@ -33065,14 +33537,17 @@
       </c>
       <c r="BO159" t="n">
         <v>5.0</v>
+      </c>
+      <c r="BP159" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B160" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C160" t="n">
         <v>62.0</v>
@@ -33268,14 +33743,17 @@
       </c>
       <c r="BO160" t="n">
         <v>0.0</v>
+      </c>
+      <c r="BP160" t="n">
+        <v>155.0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B161" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C161" t="n">
         <v>14.0</v>
@@ -33471,14 +33949,17 @@
       </c>
       <c r="BO161" t="n">
         <v>129.0</v>
+      </c>
+      <c r="BP161" t="n">
+        <v>126.0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B162" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C162" t="n">
         <v>88.0</v>
@@ -33674,14 +34155,17 @@
       </c>
       <c r="BO162" t="n">
         <v>33.0</v>
+      </c>
+      <c r="BP162" t="n">
+        <v>31.0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B163" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C163" t="n">
         <v>31.0</v>
@@ -33877,14 +34361,17 @@
       </c>
       <c r="BO163" t="n">
         <v>38.0</v>
+      </c>
+      <c r="BP163" t="n">
+        <v>36.0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B164" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C164" t="n">
         <v>83.0</v>
@@ -34080,14 +34567,17 @@
       </c>
       <c r="BO164" t="n">
         <v>174.0</v>
+      </c>
+      <c r="BP164" t="n">
+        <v>189.0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B165" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C165" t="n">
         <v>632.0</v>
@@ -34282,15 +34772,18 @@
         <v>1324.0</v>
       </c>
       <c r="BO165" t="n">
+        <v>1324.0</v>
+      </c>
+      <c r="BP165" t="n">
         <v>1324.0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B166" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C166" t="n">
         <v>148.0</v>
@@ -34485,15 +34978,18 @@
         <v>109.0</v>
       </c>
       <c r="BO166" t="n">
+        <v>109.0</v>
+      </c>
+      <c r="BP166" t="n">
         <v>109.0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B167" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C167" t="n">
         <v>17.0</v>
@@ -34689,14 +35185,17 @@
       </c>
       <c r="BO167" t="n">
         <v>7.0</v>
+      </c>
+      <c r="BP167" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B168" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C168" t="n">
         <v>1564.0</v>
@@ -34892,14 +35391,17 @@
       </c>
       <c r="BO168" t="n">
         <v>1231.0</v>
+      </c>
+      <c r="BP168" t="n">
+        <v>953.0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B169" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C169" t="n">
         <v>123.0</v>
@@ -35094,15 +35596,18 @@
         <v>175.0</v>
       </c>
       <c r="BO169" t="n">
+        <v>175.0</v>
+      </c>
+      <c r="BP169" t="n">
         <v>175.0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B170" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C170" t="n">
         <v>56.0</v>
@@ -35298,14 +35803,17 @@
       </c>
       <c r="BO170" t="n">
         <v>25.0</v>
+      </c>
+      <c r="BP170" t="n">
+        <v>95.0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B171" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C171" t="n">
         <v>83.0</v>
@@ -35500,15 +36008,18 @@
         <v>4.0</v>
       </c>
       <c r="BO171" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="BP171" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B172" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C172" t="n">
         <v>89.0</v>
@@ -35703,15 +36214,18 @@
         <v>22.0</v>
       </c>
       <c r="BO172" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="BP172" t="n">
         <v>22.0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B173" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C173" t="n">
         <v>8150.0</v>
@@ -35906,15 +36420,18 @@
         <v>22217.0</v>
       </c>
       <c r="BO173" t="n">
+        <v>22215.0</v>
+      </c>
+      <c r="BP173" t="n">
         <v>22215.0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B174" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C174" t="n">
         <v>193.0</v>
@@ -36110,14 +36627,17 @@
       </c>
       <c r="BO174" t="n">
         <v>34.0</v>
+      </c>
+      <c r="BP174" t="n">
+        <v>33.0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B175" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C175" t="n">
         <v>22.0</v>
@@ -36313,14 +36833,17 @@
       </c>
       <c r="BO175" t="n">
         <v>142.0</v>
+      </c>
+      <c r="BP175" t="n">
+        <v>143.0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B176" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C176" t="n">
         <v>26.0</v>
@@ -36515,15 +37038,18 @@
         <v>2.0</v>
       </c>
       <c r="BO176" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BP176" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B177" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C177" t="n">
         <v>204.0</v>
@@ -36719,14 +37245,17 @@
       </c>
       <c r="BO177" t="n">
         <v>299.0</v>
+      </c>
+      <c r="BP177" t="n">
+        <v>310.0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B178" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C178" t="n">
         <v>251.0</v>
@@ -36922,14 +37451,17 @@
       </c>
       <c r="BO178" t="n">
         <v>270.0</v>
+      </c>
+      <c r="BP178" t="n">
+        <v>262.0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B179" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C179" t="n">
         <v>26.0</v>
@@ -37124,15 +37656,18 @@
         <v>13.0</v>
       </c>
       <c r="BO179" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="BP179" t="n">
         <v>13.0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B180" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C180" t="n">
         <v>265.0</v>
@@ -37327,15 +37862,18 @@
         <v>113.0</v>
       </c>
       <c r="BO180" t="n">
+        <v>113.0</v>
+      </c>
+      <c r="BP180" t="n">
         <v>113.0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B181" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C181" t="n">
         <v>2099.0</v>
@@ -37531,14 +38069,17 @@
       </c>
       <c r="BO181" t="n">
         <v>2204.0</v>
+      </c>
+      <c r="BP181" t="n">
+        <v>1949.0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B182" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C182" t="n">
         <v>247.0</v>
@@ -37734,14 +38275,17 @@
       </c>
       <c r="BO182" t="n">
         <v>28.0</v>
+      </c>
+      <c r="BP182" t="n">
+        <v>25.0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B183" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C183" t="n">
         <v>48.0</v>
@@ -37937,14 +38481,17 @@
       </c>
       <c r="BO183" t="n">
         <v>40.0</v>
+      </c>
+      <c r="BP183" t="n">
+        <v>33.0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B184" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C184" t="n">
         <v>1991.0</v>
@@ -38139,15 +38686,18 @@
         <v>1421.0</v>
       </c>
       <c r="BO184" t="n">
+        <v>1421.0</v>
+      </c>
+      <c r="BP184" t="n">
         <v>1421.0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B185" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C185" t="n">
         <v>121.0</v>
@@ -38342,15 +38892,18 @@
         <v>52.0</v>
       </c>
       <c r="BO185" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="BP185" t="n">
         <v>52.0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B186" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C186" t="n">
         <v>92.0</v>
@@ -38546,14 +39099,17 @@
       </c>
       <c r="BO186" t="n">
         <v>144.0</v>
+      </c>
+      <c r="BP186" t="n">
+        <v>147.0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B187" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C187" t="n">
         <v>611.0</v>
@@ -38748,15 +39304,18 @@
         <v>338.0</v>
       </c>
       <c r="BO187" t="n">
+        <v>338.0</v>
+      </c>
+      <c r="BP187" t="n">
         <v>338.0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B188" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C188" t="n">
         <v>160.0</v>
@@ -38952,14 +39511,17 @@
       </c>
       <c r="BO188" t="n">
         <v>14.0</v>
+      </c>
+      <c r="BP188" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B189" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C189" t="n">
         <v>160.0</v>
@@ -39155,14 +39717,17 @@
       </c>
       <c r="BO189" t="n">
         <v>71.0</v>
+      </c>
+      <c r="BP189" t="n">
+        <v>68.0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B190" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C190" t="n">
         <v>303.0</v>
@@ -39358,14 +39923,17 @@
       </c>
       <c r="BO190" t="n">
         <v>214.0</v>
+      </c>
+      <c r="BP190" t="n">
+        <v>172.0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B191" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C191" t="n">
         <v>3236.0</v>
@@ -39561,14 +40129,17 @@
       </c>
       <c r="BO191" t="n">
         <v>690.0</v>
+      </c>
+      <c r="BP191" t="n">
+        <v>586.0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B192" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C192" t="n">
         <v>118.0</v>
@@ -39764,14 +40335,17 @@
       </c>
       <c r="BO192" t="n">
         <v>85.0</v>
+      </c>
+      <c r="BP192" t="n">
+        <v>91.0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B193" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C193" t="n">
         <v>220.0</v>
@@ -39966,15 +40540,18 @@
         <v>195.0</v>
       </c>
       <c r="BO193" t="n">
+        <v>195.0</v>
+      </c>
+      <c r="BP193" t="n">
         <v>195.0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C194" t="n">
         <v>3899.0</v>
@@ -40170,14 +40747,17 @@
       </c>
       <c r="BO194" t="n">
         <v>827.0</v>
+      </c>
+      <c r="BP194" t="n">
+        <v>708.0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B195" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C195" t="n">
         <v>4.0</v>
@@ -40372,15 +40952,18 @@
         <v>7.0</v>
       </c>
       <c r="BO195" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="BP195" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B196" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C196" t="n">
         <v>8.0</v>
@@ -40575,15 +41158,18 @@
         <v>1.0</v>
       </c>
       <c r="BO196" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BP196" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B197" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C197" t="n">
         <v>49.0</v>
@@ -40778,15 +41364,18 @@
         <v>29.0</v>
       </c>
       <c r="BO197" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="BP197" t="n">
         <v>28.0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B198" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C198" t="n">
         <v>255.0</v>
@@ -40982,14 +41571,17 @@
       </c>
       <c r="BO198" t="n">
         <v>140.0</v>
+      </c>
+      <c r="BP198" t="n">
+        <v>131.0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B199" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C199" t="n">
         <v>44.0</v>
@@ -41185,14 +41777,17 @@
       </c>
       <c r="BO199" t="n">
         <v>32.0</v>
+      </c>
+      <c r="BP199" t="n">
+        <v>26.0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B200" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C200" t="n">
         <v>7.0</v>
@@ -41387,15 +41982,18 @@
         <v>1.0</v>
       </c>
       <c r="BO200" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BP200" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B201" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C201" t="n">
         <v>121.0</v>
@@ -41591,14 +42189,17 @@
       </c>
       <c r="BO201" t="n">
         <v>0.0</v>
+      </c>
+      <c r="BP201" t="n">
+        <v>265.0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B202" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C202" t="n">
         <v>387.0</v>
@@ -41793,15 +42394,18 @@
         <v>290.0</v>
       </c>
       <c r="BO202" t="n">
+        <v>290.0</v>
+      </c>
+      <c r="BP202" t="n">
         <v>290.0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B203" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C203" t="n">
         <v>78.0</v>
@@ -41996,15 +42600,18 @@
         <v>11.0</v>
       </c>
       <c r="BO203" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="BP203" t="n">
         <v>11.0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B204" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C204" t="n">
         <v>292.0</v>
@@ -42200,14 +42807,17 @@
       </c>
       <c r="BO204" t="n">
         <v>404.0</v>
+      </c>
+      <c r="BP204" t="n">
+        <v>403.0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B205" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C205" t="n">
         <v>38.0</v>
@@ -42402,15 +43012,18 @@
         <v>0.0</v>
       </c>
       <c r="BO205" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BP205" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B206" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C206" t="n">
         <v>49.0</v>
@@ -42606,14 +43219,17 @@
       </c>
       <c r="BO206" t="n">
         <v>19.0</v>
+      </c>
+      <c r="BP206" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B207" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C207" t="n">
         <v>41.0</v>
@@ -42809,14 +43425,17 @@
       </c>
       <c r="BO207" t="n">
         <v>218.0</v>
+      </c>
+      <c r="BP207" t="n">
+        <v>219.0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B208" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C208" t="n">
         <v>121.0</v>
@@ -43011,15 +43630,18 @@
         <v>187.0</v>
       </c>
       <c r="BO208" t="n">
+        <v>187.0</v>
+      </c>
+      <c r="BP208" t="n">
         <v>187.0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B209" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C209" t="n">
         <v>36.0</v>
@@ -43215,14 +43837,17 @@
       </c>
       <c r="BO209" t="n">
         <v>49.0</v>
+      </c>
+      <c r="BP209" t="n">
+        <v>118.0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B210" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C210" t="n">
         <v>18.0</v>
@@ -43418,14 +44043,17 @@
       </c>
       <c r="BO210" t="n">
         <v>17.0</v>
+      </c>
+      <c r="BP210" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B211" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C211" t="n">
         <v>97.0</v>
@@ -43620,15 +44248,18 @@
         <v>53.0</v>
       </c>
       <c r="BO211" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="BP211" t="n">
         <v>53.0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B212" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C212" t="n">
         <v>6.0</v>
@@ -43823,15 +44454,18 @@
         <v>7.0</v>
       </c>
       <c r="BO212" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="BP212" t="n">
         <v>7.0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B213" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C213" t="n">
         <v>71.0</v>
@@ -44026,15 +44660,18 @@
         <v>121.0</v>
       </c>
       <c r="BO213" t="n">
+        <v>127.0</v>
+      </c>
+      <c r="BP213" t="n">
         <v>127.0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B214" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C214" t="n">
         <v>9.0</v>
@@ -44230,14 +44867,17 @@
       </c>
       <c r="BO214" t="n">
         <v>6.0</v>
+      </c>
+      <c r="BP214" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B215" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C215" t="n">
         <v>4596.0</v>
@@ -44432,15 +45072,18 @@
         <v>5538.0</v>
       </c>
       <c r="BO215" t="n">
+        <v>5538.0</v>
+      </c>
+      <c r="BP215" t="n">
         <v>5538.0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B216" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C216" t="n">
         <v>48.0</v>
@@ -44635,15 +45278,18 @@
         <v>10.0</v>
       </c>
       <c r="BO216" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BP216" t="n">
         <v>10.0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B217" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C217" t="n">
         <v>654.0</v>
@@ -44839,14 +45485,17 @@
       </c>
       <c r="BO217" t="n">
         <v>788.0</v>
+      </c>
+      <c r="BP217" t="n">
+        <v>408.0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B218" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C218" t="n">
         <v>84.0</v>
@@ -45041,15 +45690,18 @@
         <v>11.0</v>
       </c>
       <c r="BO218" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="BP218" t="n">
         <v>11.0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B219" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C219" t="n">
         <v>18.0</v>
@@ -45245,14 +45897,17 @@
       </c>
       <c r="BO219" t="n">
         <v>2.0</v>
+      </c>
+      <c r="BP219" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B220" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C220" t="n">
         <v>5.0</v>
@@ -45447,15 +46102,18 @@
         <v>0.0</v>
       </c>
       <c r="BO220" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BP220" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B221" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C221" t="n">
         <v>58.0</v>
@@ -45651,14 +46309,17 @@
       </c>
       <c r="BO221" t="n">
         <v>26.0</v>
+      </c>
+      <c r="BP221" t="n">
+        <v>25.0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B222" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C222" t="n">
         <v>159.0</v>
@@ -45854,14 +46515,17 @@
       </c>
       <c r="BO222" t="n">
         <v>29.0</v>
+      </c>
+      <c r="BP222" t="n">
+        <v>27.0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B223" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C223" t="n">
         <v>31380.0</v>
@@ -46057,14 +46721,17 @@
       </c>
       <c r="BO223" t="n">
         <v>31900.0</v>
+      </c>
+      <c r="BP223" t="n">
+        <v>31895.0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B224" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C224" t="n">
         <v>2592.0</v>
@@ -46260,14 +46927,17 @@
       </c>
       <c r="BO224" t="n">
         <v>1310.0</v>
+      </c>
+      <c r="BP224" t="n">
+        <v>1278.0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B225" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C225" t="n">
         <v>11.0</v>
@@ -46462,15 +47132,18 @@
         <v>0.0</v>
       </c>
       <c r="BO225" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BP225" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B226" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C226" t="n">
         <v>312.0</v>
@@ -46665,15 +47338,18 @@
         <v>26.0</v>
       </c>
       <c r="BO226" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="BP226" t="n">
         <v>26.0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B227" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C227" t="n">
         <v>0.0</v>
@@ -46868,15 +47544,18 @@
         <v>1.0</v>
       </c>
       <c r="BO227" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BP227" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B228" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C228" t="n">
         <v>179.0</v>
@@ -47072,14 +47751,17 @@
       </c>
       <c r="BO228" t="n">
         <v>469.0</v>
+      </c>
+      <c r="BP228" t="n">
+        <v>471.0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B229" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C229" t="n">
         <v>1510.0</v>
@@ -47275,14 +47957,17 @@
       </c>
       <c r="BO229" t="n">
         <v>476.0</v>
+      </c>
+      <c r="BP229" t="n">
+        <v>429.0</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B230" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C230" t="n">
         <v>3091.0</v>
@@ -47477,15 +48162,18 @@
         <v>3368.0</v>
       </c>
       <c r="BO230" t="n">
+        <v>3368.0</v>
+      </c>
+      <c r="BP230" t="n">
         <v>3368.0</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B231" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C231" t="n">
         <v>17.0</v>
@@ -47681,14 +48369,17 @@
       </c>
       <c r="BO231" t="n">
         <v>78.0</v>
+      </c>
+      <c r="BP231" t="n">
+        <v>75.0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B232" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C232" t="n">
         <v>124.0</v>
@@ -47883,15 +48574,18 @@
         <v>19.0</v>
       </c>
       <c r="BO232" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="BP232" t="n">
         <v>19.0</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B233" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C233" t="n">
         <v>165.0</v>
@@ -48087,14 +48781,17 @@
       </c>
       <c r="BO233" t="n">
         <v>533.0</v>
+      </c>
+      <c r="BP233" t="n">
+        <v>531.0</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B234" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C234" t="n">
         <v>25.0</v>
@@ -48290,14 +48987,17 @@
       </c>
       <c r="BO234" t="n">
         <v>22.0</v>
+      </c>
+      <c r="BP234" t="n">
+        <v>21.0</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B235" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C235" t="n">
         <v>70.0</v>
@@ -48492,15 +49192,18 @@
         <v>105.0</v>
       </c>
       <c r="BO235" t="n">
+        <v>101.0</v>
+      </c>
+      <c r="BP235" t="n">
         <v>101.0</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B236" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C236" t="n">
         <v>323.0</v>
@@ -48695,15 +49398,18 @@
         <v>501.0</v>
       </c>
       <c r="BO236" t="n">
+        <v>501.0</v>
+      </c>
+      <c r="BP236" t="n">
         <v>501.0</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B237" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C237" t="n">
         <v>1023.0</v>
@@ -48898,15 +49604,18 @@
         <v>1276.0</v>
       </c>
       <c r="BO237" t="n">
+        <v>1276.0</v>
+      </c>
+      <c r="BP237" t="n">
         <v>1276.0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B238" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C238" t="n">
         <v>243.0</v>
@@ -49101,15 +49810,18 @@
         <v>620.0</v>
       </c>
       <c r="BO238" t="n">
+        <v>620.0</v>
+      </c>
+      <c r="BP238" t="n">
         <v>620.0</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B239" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C239" t="n">
         <v>230.0</v>
@@ -49305,14 +50017,17 @@
       </c>
       <c r="BO239" t="n">
         <v>492.0</v>
+      </c>
+      <c r="BP239" t="n">
+        <v>517.0</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B240" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C240" t="n">
         <v>135.0</v>
@@ -49508,14 +50223,17 @@
       </c>
       <c r="BO240" t="n">
         <v>183.0</v>
+      </c>
+      <c r="BP240" t="n">
+        <v>205.0</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B241" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C241" t="n">
         <v>125.0</v>
@@ -49711,14 +50429,17 @@
       </c>
       <c r="BO241" t="n">
         <v>72.0</v>
+      </c>
+      <c r="BP241" t="n">
+        <v>69.0</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B242" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C242" t="n">
         <v>189.0</v>
@@ -49914,14 +50635,17 @@
       </c>
       <c r="BO242" t="n">
         <v>0.0</v>
+      </c>
+      <c r="BP242" t="n">
+        <v>543.0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B243" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C243" t="n">
         <v>3689.0</v>
@@ -50117,14 +50841,17 @@
       </c>
       <c r="BO243" t="n">
         <v>3658.0</v>
+      </c>
+      <c r="BP243" t="n">
+        <v>3584.0</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B244" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C244" t="n">
         <v>131.0</v>
@@ -50320,14 +51047,17 @@
       </c>
       <c r="BO244" t="n">
         <v>178.0</v>
+      </c>
+      <c r="BP244" t="n">
+        <v>189.0</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B245" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C245" t="n">
         <v>79.0</v>
@@ -50522,15 +51252,18 @@
         <v>26.0</v>
       </c>
       <c r="BO245" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="BP245" t="n">
         <v>25.0</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B246" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C246" t="n">
         <v>2591.0</v>
@@ -50725,15 +51458,18 @@
         <v>412.0</v>
       </c>
       <c r="BO246" t="n">
+        <v>412.0</v>
+      </c>
+      <c r="BP246" t="n">
         <v>412.0</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B247" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C247" t="n">
         <v>41.0</v>
@@ -50928,15 +51664,18 @@
         <v>9.0</v>
       </c>
       <c r="BO247" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="BP247" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B248" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C248" t="n">
         <v>146.0</v>
@@ -51132,14 +51871,17 @@
       </c>
       <c r="BO248" t="n">
         <v>250.0</v>
+      </c>
+      <c r="BP248" t="n">
+        <v>155.0</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B249" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C249" t="n">
         <v>1135.0</v>
@@ -51334,15 +52076,18 @@
         <v>915.0</v>
       </c>
       <c r="BO249" t="n">
+        <v>915.0</v>
+      </c>
+      <c r="BP249" t="n">
         <v>915.0</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B250" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C250" t="n">
         <v>176.0</v>
@@ -51537,15 +52282,18 @@
         <v>131.0</v>
       </c>
       <c r="BO250" t="n">
+        <v>131.0</v>
+      </c>
+      <c r="BP250" t="n">
         <v>131.0</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B251" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C251" t="n">
         <v>126.0</v>
@@ -51741,14 +52489,17 @@
       </c>
       <c r="BO251" t="n">
         <v>34.0</v>
+      </c>
+      <c r="BP251" t="n">
+        <v>31.0</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B252" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C252" t="n">
         <v>350.0</v>
@@ -51943,15 +52694,18 @@
         <v>165.0</v>
       </c>
       <c r="BO252" t="n">
+        <v>165.0</v>
+      </c>
+      <c r="BP252" t="n">
         <v>165.0</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B253" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C253" t="n">
         <v>357.0</v>
@@ -52146,15 +52900,18 @@
         <v>988.0</v>
       </c>
       <c r="BO253" t="n">
+        <v>988.0</v>
+      </c>
+      <c r="BP253" t="n">
         <v>988.0</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B254" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C254" t="n">
         <v>112.0</v>
@@ -52349,15 +53106,18 @@
         <v>6.0</v>
       </c>
       <c r="BO254" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="BP254" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B255" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C255" t="n">
         <v>68.0</v>
@@ -52552,15 +53312,18 @@
         <v>50.0</v>
       </c>
       <c r="BO255" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="BP255" t="n">
         <v>50.0</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B256" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C256" t="n">
         <v>180.0</v>
@@ -52756,14 +53519,17 @@
       </c>
       <c r="BO256" t="n">
         <v>188.0</v>
+      </c>
+      <c r="BP256" t="n">
+        <v>176.0</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B257" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C257" t="n">
         <v>35.0</v>
@@ -52958,15 +53724,18 @@
         <v>93.0</v>
       </c>
       <c r="BO257" t="n">
+        <v>93.0</v>
+      </c>
+      <c r="BP257" t="n">
         <v>93.0</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B258" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C258"/>
       <c r="D258"/>
@@ -53033,13 +53802,14 @@
       <c r="BM258"/>
       <c r="BN258"/>
       <c r="BO258"/>
+      <c r="BP258"/>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B259" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C259"/>
       <c r="D259"/>
@@ -53106,13 +53876,14 @@
       <c r="BM259"/>
       <c r="BN259"/>
       <c r="BO259"/>
+      <c r="BP259"/>
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B260" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C260"/>
       <c r="D260"/>
@@ -53179,13 +53950,14 @@
       <c r="BM260"/>
       <c r="BN260"/>
       <c r="BO260"/>
+      <c r="BP260"/>
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B261" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C261"/>
       <c r="D261"/>
@@ -53252,13 +54024,14 @@
       <c r="BM261"/>
       <c r="BN261"/>
       <c r="BO261"/>
+      <c r="BP261"/>
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B262" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C262"/>
       <c r="D262"/>
@@ -53325,13 +54098,14 @@
       <c r="BM262"/>
       <c r="BN262"/>
       <c r="BO262"/>
+      <c r="BP262"/>
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B263" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C263"/>
       <c r="D263"/>
@@ -53398,13 +54172,14 @@
       <c r="BM263"/>
       <c r="BN263"/>
       <c r="BO263"/>
+      <c r="BP263"/>
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B264" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C264"/>
       <c r="D264"/>
@@ -53471,13 +54246,14 @@
       <c r="BM264"/>
       <c r="BN264"/>
       <c r="BO264"/>
+      <c r="BP264"/>
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B265" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C265"/>
       <c r="D265"/>
@@ -53544,13 +54320,14 @@
       <c r="BM265"/>
       <c r="BN265"/>
       <c r="BO265"/>
+      <c r="BP265"/>
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B266" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C266"/>
       <c r="D266"/>
@@ -53617,13 +54394,14 @@
       <c r="BM266"/>
       <c r="BN266"/>
       <c r="BO266"/>
+      <c r="BP266"/>
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B267" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C267"/>
       <c r="D267"/>
@@ -53690,13 +54468,14 @@
       <c r="BM267"/>
       <c r="BN267"/>
       <c r="BO267"/>
+      <c r="BP267"/>
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B268" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C268"/>
       <c r="D268"/>
@@ -53763,13 +54542,14 @@
       <c r="BM268"/>
       <c r="BN268"/>
       <c r="BO268"/>
+      <c r="BP268"/>
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B269" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C269"/>
       <c r="D269"/>
@@ -53836,13 +54616,14 @@
       <c r="BM269"/>
       <c r="BN269"/>
       <c r="BO269"/>
+      <c r="BP269"/>
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B270" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C270"/>
       <c r="D270"/>
@@ -53909,13 +54690,14 @@
       <c r="BM270"/>
       <c r="BN270"/>
       <c r="BO270"/>
+      <c r="BP270"/>
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B271" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C271"/>
       <c r="D271"/>
@@ -53982,13 +54764,14 @@
       <c r="BM271"/>
       <c r="BN271"/>
       <c r="BO271"/>
+      <c r="BP271"/>
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B272" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C272"/>
       <c r="D272"/>
@@ -54055,13 +54838,14 @@
       <c r="BM272"/>
       <c r="BN272"/>
       <c r="BO272"/>
+      <c r="BP272"/>
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B273" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C273"/>
       <c r="D273"/>
@@ -54128,13 +54912,14 @@
       <c r="BM273"/>
       <c r="BN273"/>
       <c r="BO273"/>
+      <c r="BP273"/>
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B274" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C274"/>
       <c r="D274"/>
@@ -54201,13 +54986,14 @@
       <c r="BM274"/>
       <c r="BN274"/>
       <c r="BO274"/>
+      <c r="BP274"/>
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B275" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C275"/>
       <c r="D275"/>
@@ -54274,13 +55060,14 @@
       <c r="BM275"/>
       <c r="BN275"/>
       <c r="BO275"/>
+      <c r="BP275"/>
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B276" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C276"/>
       <c r="D276"/>
@@ -54347,13 +55134,14 @@
       <c r="BM276"/>
       <c r="BN276"/>
       <c r="BO276"/>
+      <c r="BP276"/>
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B277" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C277"/>
       <c r="D277"/>
@@ -54420,13 +55208,14 @@
       <c r="BM277"/>
       <c r="BN277"/>
       <c r="BO277"/>
+      <c r="BP277"/>
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B278" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C278"/>
       <c r="D278"/>
@@ -54493,13 +55282,14 @@
       <c r="BM278"/>
       <c r="BN278"/>
       <c r="BO278"/>
+      <c r="BP278"/>
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B279" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C279"/>
       <c r="D279"/>
@@ -54566,6 +55356,7 @@
       <c r="BM279"/>
       <c r="BN279"/>
       <c r="BO279"/>
+      <c r="BP279"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
